--- a/data/trans_bre/CONS_PSICO-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_PSICO-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,69 +470,69 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -608,407 +544,407 @@
       <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>17,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>22,96</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,76</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>16,87</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>104,88%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>116,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>99,37%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>121,8%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>15.56860399375464</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>22.96494932902135</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>14.81633113066112</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>16.86775435997587</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.8175944771653015</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.16001702636662</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.227350777720043</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>1.22510431868128</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>12,24; 23,22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>10,89; 35,46</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>9,12; 18,38</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>11,96; 21,32</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>57,55; 170,19</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>38,32; 251,6</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>52,79; 152,44</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>68,69; 180,68</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>8.674973302783018</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>10.88556921709073</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>10.15387314858971</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>11.58076798033645</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.3647527599852369</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.3832175816571049</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.6757247944831383</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.684794427802947</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>21.68506611548965</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>35.45870793502549</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>19.79119900972169</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>21.7038002762181</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.431514509719361</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.516000405982422</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.004672331781232</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.887729709532659</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,15</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,99</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>85,76%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>77,61%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>98,58%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>67,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4,71; 9,53</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5,96; 13,95</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 10,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 7,91</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>46,72; 133,33</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>40,43; 124,63</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>56,42; 141,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>42,06; 99,66</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>8.138774722906023</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>10.14552302282394</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>8.744819508554286</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>6.157011437883583</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.988524252343923</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.7761169160261487</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.128119095812049</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.6764089788092101</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>5.586565719802455</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>5.964512353900288</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>5.966792905802584</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>4.181845374253868</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.5588263903002044</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.404266302339912</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.6413810262906474</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.4174347734288578</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>10.73559089306137</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>13.94795415584525</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>11.32179939776011</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>8.192258805261277</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.520107478037656</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.246349147367746</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.677892639626594</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.007824969455826</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,54</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>30,92%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>65,06%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>59,37%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>23,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,38; 5,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 10,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 6,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 3,77</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,36; 99,22</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>19,44; 129,59</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 138,47</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-13,02; 73,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>1.494225106223415</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>6.537398105071683</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>3.226412635509535</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.369919987743154</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2065162903962914</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.6506021183977749</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.529056012426272</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.2084905352018507</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-1.580864465904699</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>2.444962723729018</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-0.05196555155336041</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>-1.668623046745655</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.182542345382302</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.1944069690787259</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.0243285958108886</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.1915631771390409</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>4.778339132726258</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>10.65615920106316</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>6.368231598323475</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>3.561802663974555</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.8639080409445451</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.295864945088055</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.346506915462671</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.6721704585214283</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,67</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,78</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,97</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,43</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>97,58%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>82,59%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>94,72%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>72,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>6,8; 10,61</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,7; 13,81</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,2; 9,7</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,96; 7,85</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>69,32; 134,99</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>50,07; 118,94</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>66,18; 125,89</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>52,43; 96,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>8.794836883625715</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>10.77674422248905</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>8.349849376728251</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>6.4734425526147</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.9570915964259291</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.8259311957084884</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1.054083865092562</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.7184218803924149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>6.816935186928038</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>7.69567765875859</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>6.441574655995288</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>4.951099423303604</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.6628670672099959</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.500712422764743</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.7192462097722361</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.5047503217768741</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>10.77198572460113</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>13.81421683160494</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>10.2103601826859</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>8.256201851580206</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.309384433012438</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.189427072063197</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.435040332489093</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.9981552374143385</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -1016,13 +952,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
